--- a/Báo cáo/1_CẦN THƠ/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
+++ b/Báo cáo/1_CẦN THƠ/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3692,51 +3692,137 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>07-25-2024</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>590</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Trần Thị Lệ</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="J39" t="n">
+        <v/>
+      </c>
+      <c r="K39" t="n">
+        <v/>
+      </c>
+      <c r="L39" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v/>
+      </c>
+      <c r="O39" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v/>
+      </c>
+      <c r="U39" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V39" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>37</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="n">
-        <v>247330000</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>266330000</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
         <v>16200000</v>
       </c>
-      <c r="L39" t="n">
-        <v>263530000</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="n">
-        <v>227730000</v>
-      </c>
-      <c r="P39" t="n">
+      <c r="L40" t="n">
+        <v>282530000</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>246730000</v>
+      </c>
+      <c r="P40" t="n">
         <v>14000000</v>
       </c>
-      <c r="Q39" t="n">
-        <v>241730000</v>
-      </c>
-      <c r="R39" t="n">
+      <c r="Q40" t="n">
+        <v>260730000</v>
+      </c>
+      <c r="R40" t="n">
         <v>21800000</v>
       </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="n">
-        <v>1700000</v>
-      </c>
-      <c r="V39" t="n">
-        <v>350000</v>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="V40" t="n">
+        <v>400000</v>
       </c>
     </row>
   </sheetData>
@@ -5384,10 +5470,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>950000</v>
+        <v>1050000</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -5430,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>30700000</v>
+        <v>31200000</v>
       </c>
     </row>
     <row r="6">
@@ -5464,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="7">
@@ -5542,13 +5628,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35000000</v>
+        <v>54000000</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>109730000</v>
+        <v>128730000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -5644,22 +5730,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>247330000</v>
+        <v>266330000</v>
       </c>
       <c r="C12" t="n">
         <v>16200000</v>
       </c>
       <c r="D12" t="n">
-        <v>223730000</v>
+        <v>242730000</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -5668,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>45200000</v>
+        <v>48700000</v>
       </c>
     </row>
   </sheetData>
@@ -5813,7 +5899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6361,26 +6447,51 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>07-25-2024</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>263530000</v>
-      </c>
-      <c r="C22" t="n">
-        <v>227730000</v>
-      </c>
-      <c r="D22" t="n">
-        <v>37</v>
-      </c>
-      <c r="E22" t="n">
-        <v>45200000</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="B23" t="n">
+        <v>282530000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>246730000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>38</v>
+      </c>
+      <c r="E23" t="n">
+        <v>48700000</v>
+      </c>
+      <c r="F23" t="n">
         <v>88012000</v>
       </c>
-      <c r="G22" t="n">
-        <v>184918000</v>
+      <c r="G23" t="n">
+        <v>207418000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
+++ b/Báo cáo/1_CẦN THƠ/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
@@ -5334,7 +5334,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mã nhân viên</t>
+          <t>Nhân viên</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">

--- a/Báo cáo/1_CẦN THƠ/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
+++ b/Báo cáo/1_CẦN THƠ/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3778,50 +3778,218 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>07-26-2024</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>591</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Huỳnh Huyền Trân</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J40" t="n">
+        <v/>
+      </c>
+      <c r="K40" t="n">
+        <v/>
+      </c>
+      <c r="L40" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v/>
+      </c>
+      <c r="O40" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v/>
+      </c>
+      <c r="U40" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>598</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Cọc Dịch Vụ Làm Đẹp</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Thị Minh</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J41" t="n">
+        <v/>
+      </c>
+      <c r="K41" t="n">
+        <v/>
+      </c>
+      <c r="L41" t="n">
+        <v>200000</v>
+      </c>
+      <c r="M41" t="n">
+        <v/>
+      </c>
+      <c r="N41" t="n">
+        <v/>
+      </c>
+      <c r="O41" t="n">
+        <v>200000</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>200000</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v/>
+      </c>
+      <c r="T41" t="n">
+        <v/>
+      </c>
+      <c r="U41" t="n">
+        <v/>
+      </c>
+      <c r="V41" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>38</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="n">
-        <v>266330000</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>272530000</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
         <v>16200000</v>
       </c>
-      <c r="L40" t="n">
-        <v>282530000</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="n">
-        <v>246730000</v>
-      </c>
-      <c r="P40" t="n">
+      <c r="L42" t="n">
+        <v>288730000</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="n">
+        <v>252930000</v>
+      </c>
+      <c r="P42" t="n">
         <v>14000000</v>
       </c>
-      <c r="Q40" t="n">
-        <v>260730000</v>
-      </c>
-      <c r="R40" t="n">
+      <c r="Q42" t="n">
+        <v>266930000</v>
+      </c>
+      <c r="R42" t="n">
         <v>21800000</v>
       </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="V40" t="n">
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="V42" t="n">
         <v>400000</v>
       </c>
     </row>
@@ -5323,7 +5491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5470,10 +5638,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>1050000</v>
+        <v>1100000</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -5522,11 +5690,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20000000</v>
+        <v>200000</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -5550,17 +5718,17 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74000000</v>
+        <v>20000000</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -5584,23 +5752,23 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>10500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9600000</v>
+        <v>74000000</v>
       </c>
       <c r="C8" t="n">
-        <v>2300000</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>74400000</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -5618,23 +5786,23 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54000000</v>
+        <v>9600000</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2300000</v>
       </c>
       <c r="D9" t="n">
-        <v>128730000</v>
+        <v>80400000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -5658,26 +5826,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Trương Lâm Khanh</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2600000</v>
+        <v>54000000</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>128730000</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -5692,14 +5860,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Trương Lâm Khanh</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49130000</v>
+        <v>2600000</v>
       </c>
       <c r="C11" t="n">
-        <v>13900000</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -5708,10 +5876,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -5720,40 +5888,74 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>55130000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13900000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>266330000</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B13" t="n">
+        <v>272530000</v>
+      </c>
+      <c r="C13" t="n">
         <v>16200000</v>
       </c>
-      <c r="D12" t="n">
-        <v>242730000</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>14</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1100000</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="D13" t="n">
+        <v>248730000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>48700000</v>
       </c>
     </row>
@@ -5899,7 +6101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6472,26 +6674,76 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>07-26-2024</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>200000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>200000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>282530000</v>
-      </c>
-      <c r="C23" t="n">
-        <v>246730000</v>
-      </c>
-      <c r="D23" t="n">
-        <v>38</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="B25" t="n">
+        <v>288730000</v>
+      </c>
+      <c r="C25" t="n">
+        <v>252930000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>40</v>
+      </c>
+      <c r="E25" t="n">
         <v>48700000</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F25" t="n">
         <v>88012000</v>
       </c>
-      <c r="G23" t="n">
-        <v>207418000</v>
+      <c r="G25" t="n">
+        <v>213618000</v>
       </c>
     </row>
   </sheetData>
